--- a/USER_INPUT_TEMPLATE.xlsx
+++ b/USER_INPUT_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furqa\OneDrive\Desktop\3040 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D34B5-9B77-477D-813B-2085C6AFD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85943EB9-0494-4297-856C-BADE8D7C6775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="18140" windowHeight="10980" xr2:uid="{FD66E29C-C995-4166-90B3-08B924C374E1}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="18140" windowHeight="10980" xr2:uid="{FD66E29C-C995-4166-90B3-08B924C374E1}"/>
   </bookViews>
   <sheets>
     <sheet name="allowed_values" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>age</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Number of employees (economic indicator).</t>
+  </si>
+  <si>
+    <t>sidenote</t>
+  </si>
+  <si>
+    <t>To run the GUI, copy the template into a new CSV with information (you need to keep the column headers aka row 1 in your new CSV)</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7979"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,15 +305,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,6 +333,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7979"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -637,237 +666,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F1E617-376A-4F25-A515-288FCF0A7E84}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -881,7 +917,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
